--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282971.619687526</v>
+        <v>280490.6998620667</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>85.41900355657742</v>
       </c>
       <c r="F11" t="n">
-        <v>121.994476417764</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
         <v>267.6876178001941</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104944</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
         <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>6.239102017931988</v>
+        <v>107.0733734269359</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292092</v>
+        <v>62.01200608292093</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>57.36820351377821</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579958</v>
+        <v>14.65678318579955</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104947</v>
+        <v>82.26761520104944</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524938</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>130.0448949868216</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
         <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3177920689272</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115015</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>9.166859385895592</v>
+        <v>9.166859385896103</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719019</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1844,22 +1844,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E17" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G17" t="n">
-        <v>279.3200096460264</v>
+        <v>3.974324134331084</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X17" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503346</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290888</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249333</v>
+        <v>74.7201898124934</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085015</v>
+        <v>72.53867944085022</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721222</v>
+        <v>71.52576481721229</v>
       </c>
       <c r="G19" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330927</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860176</v>
+        <v>70.85973170860183</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411907</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432836</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257229</v>
+        <v>178.2734363206855</v>
       </c>
       <c r="T19" t="n">
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>275.0274093258353</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2081,22 +2081,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>330.6444112820765</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245688</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
         <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>253.7856194870048</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503346</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290888</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249333</v>
+        <v>74.7201898124934</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085015</v>
+        <v>72.53867944085022</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721222</v>
+        <v>71.52576481721229</v>
       </c>
       <c r="G22" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330927</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860176</v>
+        <v>70.85973170860183</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411907</v>
+        <v>22.45713720411914</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432838</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257229</v>
+        <v>178.273436320685</v>
       </c>
       <c r="T22" t="n">
         <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>214.2140663782814</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,19 +2318,19 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H23" t="n">
         <v>220.7124811816015</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245688</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W23" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X23" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503346</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290888</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249333</v>
+        <v>74.7201898124934</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085015</v>
+        <v>72.53867944085022</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721222</v>
+        <v>71.52576481721229</v>
       </c>
       <c r="G25" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330927</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860176</v>
+        <v>70.85973170860183</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411914</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432832</v>
+        <v>77.43656365929034</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,16 +2530,16 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>275.0274093258348</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -3029,22 +3029,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958323</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3086,13 +3086,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515427</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433863</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,7 +3250,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3323,13 +3323,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>134.2912433677303</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>230.7340562419016</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3518,7 +3518,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010733</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>90.95618068285802</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621576</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>154.452923095723</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,16 +3797,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C43" t="n">
-        <v>69.5621008705229</v>
+        <v>111.7690391349169</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846423</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621585</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.20693826439323</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600708</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
         <v>230.0675382420299</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383225</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010731</v>
+        <v>101.8902586125592</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846412</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F46" t="n">
-        <v>47.7363277948262</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621573</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>43.53923808266118</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4198,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1894.255874182343</v>
+        <v>1498.714766761815</v>
       </c>
       <c r="C11" t="n">
-        <v>1552.485424501655</v>
+        <v>1156.944317081127</v>
       </c>
       <c r="D11" t="n">
-        <v>1221.411793154628</v>
+        <v>825.8706857341006</v>
       </c>
       <c r="E11" t="n">
-        <v>862.8156078161074</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597802</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645003</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299121</v>
+        <v>81.31694793299106</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3242.507220395991</v>
       </c>
       <c r="T11" t="n">
-        <v>3146.820141253115</v>
+        <v>3063.721540039937</v>
       </c>
       <c r="U11" t="n">
-        <v>2920.481731786676</v>
+        <v>2837.383130573497</v>
       </c>
       <c r="V11" t="n">
-        <v>2616.610911702829</v>
+        <v>2533.51231048965</v>
       </c>
       <c r="W11" t="n">
-        <v>2616.610911702829</v>
+        <v>2207.935722479259</v>
       </c>
       <c r="X11" t="n">
-        <v>2616.610911702829</v>
+        <v>1861.662031477903</v>
       </c>
       <c r="Y11" t="n">
-        <v>2253.663646986741</v>
+        <v>1498.714766761815</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387296</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5148,16 +5148,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.51949026613</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>572.7690351314513</v>
+        <v>418.3126375609356</v>
       </c>
       <c r="C13" t="n">
-        <v>566.4669118810153</v>
+        <v>310.157714907465</v>
       </c>
       <c r="D13" t="n">
-        <v>566.4669118810153</v>
+        <v>187.2331427548529</v>
       </c>
       <c r="E13" t="n">
-        <v>445.7458855583459</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F13" t="n">
-        <v>326.0480053201592</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G13" t="n">
-        <v>185.5372359546019</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705055</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402566</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5218,7 +5218,7 @@
         <v>2036.240867784763</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
         <v>2077.863719075785</v>
@@ -5233,16 +5233,16 @@
         <v>1456.884554376952</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.392133430788</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535514</v>
+        <v>967.1670306535518</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3695470152577</v>
+        <v>766.3695470152581</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7690351314513</v>
+        <v>572.7690351314517</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1884.431434724391</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C14" t="n">
-        <v>1542.660985043703</v>
+        <v>797.5365442767284</v>
       </c>
       <c r="D14" t="n">
-        <v>1211.587353696676</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="E14" t="n">
-        <v>852.9911683581551</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="F14" t="n">
-        <v>469.1973308282711</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="G14" t="n">
-        <v>81.31694793299124</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299124</v>
+        <v>81.31694793299107</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
@@ -5309,19 +5309,19 @@
         <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>2932.363060255268</v>
+        <v>2837.383130573497</v>
       </c>
       <c r="V14" t="n">
-        <v>2932.363060255268</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>2606.786472244877</v>
+        <v>2207.935722479259</v>
       </c>
       <c r="X14" t="n">
-        <v>2606.786472244877</v>
+        <v>1861.662031477903</v>
       </c>
       <c r="Y14" t="n">
-        <v>2243.839207528789</v>
+        <v>1498.714766761815</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5416,7 +5416,7 @@
         <v>339.2069118755003</v>
       </c>
       <c r="D16" t="n">
-        <v>216.2823397228882</v>
+        <v>216.2823397228883</v>
       </c>
       <c r="E16" t="n">
         <v>207.0228857977409</v>
@@ -5434,34 +5434,34 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.285694000374</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705053</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402566</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.942556361061</v>
+        <v>1082.94255636106</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.00187818818</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.008292145084</v>
+        <v>1976.008292145083</v>
       </c>
       <c r="T16" t="n">
         <v>1781.433743974333</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1797.03101260432</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C17" t="n">
-        <v>1502.710195871706</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D17" t="n">
-        <v>1219.086197472752</v>
+        <v>940.9592424104335</v>
       </c>
       <c r="E17" t="n">
-        <v>907.9396450823051</v>
+        <v>629.8126900199863</v>
       </c>
       <c r="F17" t="n">
-        <v>571.5954405004945</v>
+        <v>293.4684854381758</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
@@ -5513,52 +5513,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417716</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281943</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W17" t="n">
-        <v>2723.310842281943</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2424.48678422866</v>
+        <v>2146.359829166341</v>
       </c>
       <c r="Y17" t="n">
-        <v>2108.989152460646</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="18">
@@ -5583,10 +5583,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5595,13 +5595,13 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
         <v>1685.951113992583</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872285</v>
+        <v>569.1217789872289</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671186</v>
+        <v>474.827296267119</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625799</v>
+        <v>399.3523570625802</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879837</v>
+        <v>326.080963687984</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978706</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604109</v>
+        <v>89.19609340604114</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5674,16 +5674,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5698,25 +5698,25 @@
         <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952116</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729439</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062879</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356247</v>
+        <v>975.6272732356254</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454043</v>
+        <v>822.2794225454049</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096712</v>
+        <v>676.1285436096717</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1554.55302580711</v>
+        <v>1518.976134084842</v>
       </c>
       <c r="C20" t="n">
-        <v>1554.55302580711</v>
+        <v>1224.655317352227</v>
       </c>
       <c r="D20" t="n">
-        <v>1270.929027408156</v>
+        <v>941.0313189532732</v>
       </c>
       <c r="E20" t="n">
-        <v>959.782475017709</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="F20" t="n">
-        <v>623.4382704358986</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3194.26977420119</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3015.380997682823</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2758.959810547049</v>
+        <v>2723.382918824781</v>
       </c>
       <c r="W20" t="n">
-        <v>2480.832855484732</v>
+        <v>2445.255963762464</v>
       </c>
       <c r="X20" t="n">
-        <v>2182.008797431449</v>
+        <v>2146.431905709181</v>
       </c>
       <c r="Y20" t="n">
-        <v>1866.511165663434</v>
+        <v>1830.934273941166</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158139</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872285</v>
+        <v>569.1217789872289</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671185</v>
+        <v>474.827296267119</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625798</v>
+        <v>399.3523570625802</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879837</v>
+        <v>326.080963687984</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978706</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604107</v>
+        <v>89.19609340604116</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5935,25 +5935,25 @@
         <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952116</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729439</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062879</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356254</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454043</v>
+        <v>822.2794225454049</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096712</v>
+        <v>676.1285436096717</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056952</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324337</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349348</v>
+        <v>973.0946095349359</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531253</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J23" t="n">
-        <v>388.4813261528524</v>
+        <v>262.2568857815079</v>
       </c>
       <c r="K23" t="n">
-        <v>722.3006998426988</v>
+        <v>596.0762594713544</v>
       </c>
       <c r="L23" t="n">
-        <v>1173.334913091107</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1706.866817763032</v>
+        <v>1580.642377391688</v>
       </c>
       <c r="N23" t="n">
-        <v>2253.645634821814</v>
+        <v>2253.645634821815</v>
       </c>
       <c r="O23" t="n">
-        <v>2756.618105701151</v>
+        <v>2756.618105701152</v>
       </c>
       <c r="P23" t="n">
-        <v>3151.392472058329</v>
+        <v>3151.39247205833</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567317</v>
+        <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.887741124121</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.238772859013</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451031</v>
+        <v>3501.902725451032</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932664</v>
+        <v>3323.013948932665</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.59276179689</v>
+        <v>3066.592761796891</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734573</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.64174868129</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6054,31 +6054,31 @@
         <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504589</v>
+        <v>319.2500409504588</v>
       </c>
       <c r="G24" t="n">
-        <v>182.886940783077</v>
+        <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
         <v>92.38504642094446</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248239</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243131</v>
+        <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934471</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061124</v>
+        <v>772.017383606112</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382883</v>
+        <v>1692.816752382882</v>
       </c>
       <c r="O24" t="n">
         <v>2103.778031800937</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775274</v>
+        <v>575.987417377528</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574175</v>
+        <v>481.692934657418</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528788</v>
+        <v>406.2179954528792</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782827</v>
+        <v>332.946602078283</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881694</v>
+        <v>260.6983547881696</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706853</v>
+        <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634006</v>
+        <v>96.06173179634014</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248239</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182943</v>
+        <v>322.4875702182944</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667904</v>
+        <v>639.0473686667905</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663393</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,31 +6166,31 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478791</v>
+        <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444116</v>
+        <v>1855.941435307791</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.927245478739</v>
+        <v>1738.897251342415</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119738</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1377.311169453178</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591413</v>
+        <v>1197.268381455088</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259236</v>
+        <v>982.4929116259244</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357032</v>
+        <v>829.145060935704</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999701</v>
+        <v>682.9941819999708</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.845421545561</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1394.992678104633</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623798</v>
+        <v>1928.524582776558</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2475.30339983534</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456147</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644877</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032365</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.553760997781</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.019203024666</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572846</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K27" t="n">
         <v>413.0883853676542</v>
@@ -6318,25 +6318,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T27" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V27" t="n">
         <v>1794.243147664371</v>
@@ -6345,10 +6345,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643394</v>
@@ -6379,19 +6379,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
@@ -6467,46 +6467,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1453.404136464983</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N29" t="n">
-        <v>2580.208754682581</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O29" t="n">
-        <v>3083.181225561918</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P29" t="n">
-        <v>3477.955591919096</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3936.433794428084</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
@@ -6537,13 +6537,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
         <v>779.7865456803191</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697997</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913838</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,7 +6640,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
         <v>2271.591606277852</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467802</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.845421545561</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L32" t="n">
-        <v>1468.364237198915</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.89614187084</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N32" t="n">
-        <v>2548.674958929621</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
         <v>449.4840331913841</v>
@@ -6847,22 +6847,22 @@
         <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6874,16 +6874,16 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912096</v>
@@ -6944,31 +6944,31 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746127</v>
@@ -6977,10 +6977,10 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,10 +7032,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.9308303909357</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368722</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D37" t="n">
-        <v>379.2208771983799</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
         <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1791.646827515027</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T37" t="n">
-        <v>1668.551646658397</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1379.44877978404</v>
+        <v>1478.120214357884</v>
       </c>
       <c r="V37" t="n">
-        <v>1124.764291578153</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W37" t="n">
-        <v>835.3471215411928</v>
+        <v>934.0185561150363</v>
       </c>
       <c r="X37" t="n">
-        <v>706.0290052170188</v>
+        <v>706.0290052170189</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.9078606473321</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464981</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F38" t="n">
-        <v>581.825297830734</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296685</v>
@@ -7196,28 +7196,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,10 +7269,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>642.2355359389142</v>
+        <v>543.5641013650709</v>
       </c>
       <c r="C40" t="n">
-        <v>571.9707875848507</v>
+        <v>473.2993530110074</v>
       </c>
       <c r="D40" t="n">
-        <v>520.5255827463584</v>
+        <v>323.1827135986716</v>
       </c>
       <c r="E40" t="n">
-        <v>428.6506527636735</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F40" t="n">
-        <v>281.7607052657632</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058688</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>976.6518270891709</v>
+        <v>877.9803925153278</v>
       </c>
       <c r="X40" t="n">
-        <v>847.333710764997</v>
+        <v>748.662276191154</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953104</v>
+        <v>626.5411316214672</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F41" t="n">
         <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,16 +7409,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7427,7 +7427,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7436,10 +7436,10 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515855</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7491,10 +7491,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,10 +7506,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.9308303909359</v>
+        <v>543.5641013650711</v>
       </c>
       <c r="C43" t="n">
-        <v>430.6660820368724</v>
+        <v>430.6660820368722</v>
       </c>
       <c r="D43" t="n">
-        <v>379.22087719838</v>
+        <v>379.2208771983799</v>
       </c>
       <c r="E43" t="n">
-        <v>329.9792181898302</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
@@ -7567,16 +7567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1884.661277114358</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1692.975392941184</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T43" t="n">
-        <v>1471.20877751071</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1182.105910636354</v>
+        <v>1422.082050758176</v>
       </c>
       <c r="V43" t="n">
-        <v>1026.09285700431</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>835.3471215411929</v>
+        <v>976.6518270891715</v>
       </c>
       <c r="X43" t="n">
-        <v>706.0290052170189</v>
+        <v>748.6622761911542</v>
       </c>
       <c r="Y43" t="n">
-        <v>583.9078606473322</v>
+        <v>626.5411316214675</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7655,28 +7655,28 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515855</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7728,10 +7728,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,10 +7743,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.9279421464335</v>
+        <v>453.7336441225992</v>
       </c>
       <c r="C46" t="n">
-        <v>527.9917592185266</v>
+        <v>383.4688957685357</v>
       </c>
       <c r="D46" t="n">
-        <v>476.5465543800343</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>427.3048953714847</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
-        <v>379.0863824474178</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>211.3835458221368</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1883.315519722168</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1790.301070122838</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1667.205889266207</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U46" t="n">
-        <v>1476.774456965694</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V46" t="n">
-        <v>1222.089968759807</v>
+        <v>978.8956707359733</v>
       </c>
       <c r="W46" t="n">
-        <v>1031.34423329669</v>
+        <v>788.1499352728562</v>
       </c>
       <c r="X46" t="n">
-        <v>902.0261169725163</v>
+        <v>658.8318189486822</v>
       </c>
       <c r="Y46" t="n">
-        <v>779.9049724028297</v>
+        <v>536.7106743789955</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430628</v>
+        <v>157.2353108430625</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729004</v>
+        <v>184.4039433728999</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389599</v>
+        <v>191.4948909389593</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333062</v>
+        <v>181.0856325333055</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830236</v>
+        <v>179.3553748830228</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383985</v>
+        <v>182.8301554383978</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586581</v>
+        <v>190.8908035586575</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266121</v>
+        <v>192.0103836266117</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875973</v>
+        <v>112.6562001875971</v>
       </c>
       <c r="K9" t="n">
-        <v>113.603122337253</v>
+        <v>113.6031223372527</v>
       </c>
       <c r="L9" t="n">
-        <v>105.962971867227</v>
+        <v>105.9629718672266</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253589</v>
+        <v>104.1013981253583</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677612</v>
+        <v>92.30246558677557</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359732</v>
+        <v>106.8829608359727</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798321</v>
+        <v>105.3113487798317</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615455</v>
+        <v>120.8212784615453</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564656</v>
+        <v>116.1755252564653</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085225</v>
+        <v>119.1996074085222</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140776</v>
+        <v>108.4284123140773</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530923</v>
+        <v>120.669460053092</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662703</v>
+        <v>122.5080856662701</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>127.49943471853</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>127.4994347185306</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9878,16 +9878,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>343.5485285966293</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>274.8351763665443</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10115,10 +10115,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>402.5500016878923</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>62.52018570663827</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,25 +10349,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>187.8883066283053</v>
       </c>
       <c r="O32" t="n">
-        <v>306.6874953089271</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>269.591219928558</v>
       </c>
       <c r="F11" t="n">
-        <v>257.961422736821</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104942</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>134.0875724935694</v>
+        <v>33.25330108456556</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271166</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>270.3946915197783</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>94.03013038495396</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>110.3469566735472</v>
+        <v>110.3469566735467</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358049</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271172</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292096</v>
+        <v>62.01200608292092</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>57.70643280170807</v>
+        <v>333.0521183134034</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>275.345685511694</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G20" t="n">
-        <v>6.382031165657963</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245679</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>0.07135577741117231</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1109295.483668697</v>
+        <v>1109295.483668696</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>923513.9364664528</v>
+        <v>923513.9364664529</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1065278.772385372</v>
+        <v>1065278.772385371</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1037891.147665589</v>
+        <v>1037891.147665588</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>409638.1693585191</v>
       </c>
       <c r="C2" t="n">
-        <v>409638.1693585192</v>
+        <v>409638.1693585193</v>
       </c>
       <c r="D2" t="n">
         <v>409649.3349029732</v>
       </c>
       <c r="E2" t="n">
-        <v>364770.0004524874</v>
+        <v>364770.0004524873</v>
       </c>
       <c r="F2" t="n">
-        <v>364770.0004524873</v>
+        <v>364770.0004524872</v>
       </c>
       <c r="G2" t="n">
-        <v>397265.4106232685</v>
+        <v>397265.4106232686</v>
       </c>
       <c r="H2" t="n">
-        <v>397265.4106232686</v>
+        <v>397265.4106232683</v>
       </c>
       <c r="I2" t="n">
         <v>410520.8849321418</v>
       </c>
       <c r="J2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321409</v>
       </c>
       <c r="K2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321414</v>
       </c>
       <c r="L2" t="n">
-        <v>410520.8849321412</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="M2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="N2" t="n">
         <v>410520.8849321416</v>
       </c>
       <c r="O2" t="n">
+        <v>410520.8849321416</v>
+      </c>
+      <c r="P2" t="n">
         <v>410520.8849321417</v>
-      </c>
-      <c r="P2" t="n">
-        <v>410520.8849321416</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552348</v>
+        <v>59764.55367552434</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
-        <v>4.125725873953862e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487413</v>
+        <v>37580.10929487421</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983349</v>
+        <v>22821.46782983372</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179701</v>
+        <v>25409.43302179683</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487418</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927241</v>
+        <v>202168.0999927244</v>
       </c>
       <c r="N3" t="n">
-        <v>1.568546394992154e-10</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>426120.6833475037</v>
+        <v>426120.6833475033</v>
       </c>
       <c r="E4" t="n">
-        <v>39414.21797863746</v>
+        <v>39414.21797863741</v>
       </c>
       <c r="F4" t="n">
-        <v>39414.21797863737</v>
+        <v>39414.21797863742</v>
       </c>
       <c r="G4" t="n">
-        <v>76442.37834007968</v>
+        <v>76442.37834007962</v>
       </c>
       <c r="H4" t="n">
-        <v>76442.37834007968</v>
+        <v>76442.37834007962</v>
       </c>
       <c r="I4" t="n">
-        <v>89331.3356060285</v>
+        <v>89331.33560602846</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936343</v>
+        <v>86909.55729936331</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.55729936334</v>
+        <v>86909.55729936333</v>
       </c>
       <c r="L4" t="n">
-        <v>86909.55729936347</v>
+        <v>86909.55729936328</v>
       </c>
       <c r="M4" t="n">
+        <v>91573.95495316941</v>
+      </c>
+      <c r="N4" t="n">
+        <v>91573.95495316939</v>
+      </c>
+      <c r="O4" t="n">
         <v>91573.95495316942</v>
       </c>
-      <c r="N4" t="n">
-        <v>91573.95495316948</v>
-      </c>
-      <c r="O4" t="n">
-        <v>91573.95495316945</v>
-      </c>
       <c r="P4" t="n">
-        <v>91573.95495316949</v>
+        <v>91573.95495316942</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186638</v>
+        <v>35148.9054318664</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.4903648264</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
@@ -26488,7 +26488,7 @@
         <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184213</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26497,19 +26497,19 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-71014.05091387374</v>
+        <v>-71018.46449174185</v>
       </c>
       <c r="C6" t="n">
-        <v>-71014.05091387368</v>
+        <v>-71018.46449174173</v>
       </c>
       <c r="D6" t="n">
-        <v>-111384.8075519203</v>
+        <v>-111389.1653020667</v>
       </c>
       <c r="E6" t="n">
-        <v>-840452.6800546075</v>
+        <v>-840681.4344770055</v>
       </c>
       <c r="F6" t="n">
-        <v>248786.2921090231</v>
+        <v>248557.5376866251</v>
       </c>
       <c r="G6" t="n">
-        <v>202724.2798630998</v>
+        <v>202658.0024915556</v>
       </c>
       <c r="H6" t="n">
-        <v>240304.389157974</v>
+        <v>240238.1117864296</v>
       </c>
       <c r="I6" t="n">
-        <v>212631.5531944377</v>
+        <v>212631.5531944374</v>
       </c>
       <c r="J6" t="n">
-        <v>208823.952936175</v>
+        <v>208823.9529361747</v>
       </c>
       <c r="K6" t="n">
-        <v>234233.3859579722</v>
+        <v>234233.385957972</v>
       </c>
       <c r="L6" t="n">
-        <v>196653.2766630974</v>
+        <v>196653.2766630981</v>
       </c>
       <c r="M6" t="n">
-        <v>34260.23267999828</v>
+        <v>34260.23267999799</v>
       </c>
       <c r="N6" t="n">
-        <v>236428.3326727221</v>
+        <v>236428.3326727223</v>
       </c>
       <c r="O6" t="n">
-        <v>236428.3326727225</v>
+        <v>236428.3326727223</v>
       </c>
       <c r="P6" t="n">
-        <v>236428.3326727223</v>
+        <v>236428.3326727224</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790723</v>
+        <v>69.78465283790823</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
@@ -26805,31 +26805,31 @@
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810298</v>
+        <v>917.2219352810303</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859272</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951234</v>
+        <v>50.70958360951241</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.819689542112892e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790723</v>
+        <v>69.78465283790823</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755391</v>
+        <v>1019.99204775539</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873716</v>
+        <v>85.82047987873739</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758485</v>
+        <v>97.11452592758417</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959704</v>
+        <v>648.4664495959715</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104726</v>
+        <v>199.6603204104724</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780173</v>
+        <v>132.246564378017</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036572</v>
+        <v>202.6272343036571</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448432</v>
+        <v>221.8677799448431</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256562</v>
+        <v>110.7857668256561</v>
       </c>
       <c r="I9" t="n">
-        <v>84.228618466721</v>
+        <v>84.22861846672093</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987507</v>
+        <v>90.83829126987493</v>
       </c>
       <c r="S9" t="n">
-        <v>168.895076719229</v>
+        <v>168.8950767192289</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519073</v>
+        <v>84.46220888519061</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990161</v>
+        <v>7.649035050989953</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317039</v>
+        <v>75.62456067317024</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437877</v>
+        <v>171.6351144437876</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712641</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075642</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W19" t="n">
-        <v>11.49558901075574</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075687</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X22" t="n">
-        <v>11.49558901075579</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075699</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W25" t="n">
-        <v>11.49558901075619</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859227</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859125</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,16 +30189,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>55.47778196371155</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>55.47778196371129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -30207,10 +30207,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>55.47778196371115</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810494</v>
+        <v>55.4777819637109</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.72521440565411</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810505</v>
+        <v>46.72521440565316</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>45.39291458738617</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413354</v>
+        <v>0.2805413179413394</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366702</v>
+        <v>2.873093772366743</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993334</v>
+        <v>10.8155691599335</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362344</v>
+        <v>23.81059368362378</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208017</v>
+        <v>35.68590767208068</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102733</v>
+        <v>44.27152403102795</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396654</v>
+        <v>49.26060069396725</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356737</v>
+        <v>50.05768871356808</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328821</v>
+        <v>47.26805598328888</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661149</v>
+        <v>40.34219219661206</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.2953062478374</v>
+        <v>30.29530624783784</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313242</v>
+        <v>17.62255356313268</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588186</v>
+        <v>6.392835282588278</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288196</v>
+        <v>1.228069619288214</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530683</v>
+        <v>0.02244330543530715</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796495</v>
+        <v>0.1501028381796517</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840299</v>
+        <v>1.44967741084032</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694074</v>
+        <v>5.168014384694148</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906943</v>
+        <v>14.18142647906964</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710595</v>
+        <v>24.23831663710629</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264715</v>
+        <v>32.59140791264761</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665943</v>
+        <v>38.03263579665998</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655718</v>
+        <v>39.03924649655774</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847126</v>
+        <v>35.71328360847177</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449816</v>
+        <v>28.66305863449857</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447596</v>
+        <v>19.16049562447624</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768067</v>
+        <v>9.3195428827682</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608839</v>
+        <v>2.788094384608879</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890257</v>
+        <v>0.6050197731890343</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345367</v>
+        <v>0.009875186722345507</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486852</v>
+        <v>0.125841177248687</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811038</v>
+        <v>1.118842466811054</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078642</v>
+        <v>3.784387403078696</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482039</v>
+        <v>8.896971231482167</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489269</v>
+        <v>14.6204567748929</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477271</v>
+        <v>18.70915102477297</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908253</v>
+        <v>19.72617653908281</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115562</v>
+        <v>19.2571321511559</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875052</v>
+        <v>17.78707839875078</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287733</v>
+        <v>15.21991838287755</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852399</v>
+        <v>10.53748257852414</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381788</v>
+        <v>5.658276933381869</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233903</v>
+        <v>2.193068516233935</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625637</v>
+        <v>0.5376850300625714</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564653</v>
+        <v>0.006864064213564751</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837917</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019262</v>
+        <v>72.49856320019263</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
         <v>346.6775187573245</v>
@@ -35580,13 +35580,13 @@
         <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
         <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019259</v>
+        <v>72.49856320019263</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
         <v>346.6775187573245</v>
@@ -35817,13 +35817,13 @@
         <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
         <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004584</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>318.2864356872425</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>679.801270131442</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597742</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>799.1386429889615</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>827.1370117794555</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597773</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,19 +36756,19 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887904</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36835,10 +36835,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>858.1401160802245</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36847,13 +36847,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>122.1333842488631</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>740.1901420412167</v>
       </c>
       <c r="O32" t="n">
-        <v>814.7404961971461</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,16 +37236,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637016</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219371</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
